--- a/data/gwl_lists/GWLs_CMIP5_all_models.xlsx
+++ b/data/gwl_lists/GWLs_CMIP5_all_models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbecsi/Desktop/Arbeit/Qgis/data/AAR2/GWLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C10333F2-83B4-7649-B888-9D80D97E2658}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A614E-8145-2345-A84E-8477B4D19278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" xr2:uid="{F14C9CA9-83D9-2B46-A323-DF5833BB358B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
   <si>
     <t>Model</t>
   </si>
@@ -264,14 +264,24 @@
   </si>
   <si>
     <t>AUT GCM CCS 1991-2020</t>
+  </si>
+  <si>
+    <t>GFDL-CM3_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>2045-2064</t>
+  </si>
+  <si>
+    <t>2061-2080</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -323,10 +333,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -644,10 +655,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD54D6C1-6F42-F64D-905A-EC4D8AA38A62}">
-  <dimension ref="A1:M27"/>
+  <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39"/>
+      <selection activeCell="Q10" sqref="Q10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -655,31 +666,31 @@
     <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3" t="s">
+      <c r="C1" s="4"/>
+      <c r="D1" s="4"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3" t="s">
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
@@ -1256,192 +1267,236 @@
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="B23">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="C23">
-        <v>2027</v>
+        <v>2035</v>
       </c>
       <c r="D23">
-        <v>2048</v>
+        <v>2055</v>
       </c>
       <c r="E23">
-        <v>2066</v>
+        <v>2071</v>
       </c>
       <c r="F23" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G23" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="H23" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="I23" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="J23" s="2">
-        <v>0.27716342078308198</v>
+        <v>1.2547776910347199</v>
       </c>
       <c r="K23" s="2">
-        <v>0.97698444790303796</v>
+        <v>1.8814544179047701</v>
       </c>
       <c r="L23" s="2">
-        <v>2.1671324835882499</v>
+        <v>3.3167032989732199</v>
       </c>
       <c r="M23" s="2">
-        <v>3.4109224743312501</v>
+        <v>4.9136741564842401</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B24">
-        <v>2034</v>
+        <v>2011</v>
       </c>
       <c r="C24">
+        <v>2027</v>
+      </c>
+      <c r="D24">
         <v>2048</v>
       </c>
-      <c r="D24">
-        <v>2070</v>
+      <c r="E24">
+        <v>2066</v>
       </c>
       <c r="F24" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G24" t="s">
+        <v>58</v>
+      </c>
+      <c r="H24" t="s">
         <v>62</v>
       </c>
-      <c r="H24" t="s">
-        <v>40</v>
+      <c r="I24" t="s">
+        <v>63</v>
       </c>
       <c r="J24" s="2">
-        <v>0.69072337680391005</v>
+        <v>0.27716342078308198</v>
       </c>
       <c r="K24" s="2">
-        <v>1.39141197204587</v>
+        <v>0.97698444790303796</v>
       </c>
       <c r="L24" s="2">
-        <v>2.5225286695692</v>
-      </c>
-      <c r="M24" s="2"/>
+        <v>2.1671324835882499</v>
+      </c>
+      <c r="M24" s="2">
+        <v>3.4109224743312501</v>
+      </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C25">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="D25">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="F25" t="s">
-        <v>66</v>
+        <v>15</v>
       </c>
       <c r="G25" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="J25" s="2">
-        <v>0.78084819934989003</v>
+        <v>0.69072337680391005</v>
       </c>
       <c r="K25" s="2">
-        <v>1.1650189858895901</v>
+        <v>1.39141197204587</v>
       </c>
       <c r="L25" s="2">
-        <v>2.51032525521738</v>
+        <v>2.5225286695692</v>
       </c>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>2011</v>
+        <v>2033</v>
       </c>
       <c r="C26">
-        <v>2029</v>
+        <v>2050</v>
       </c>
       <c r="D26">
-        <v>2060</v>
-      </c>
-      <c r="E26">
-        <v>2086</v>
+        <v>2074</v>
       </c>
       <c r="F26" t="s">
-        <v>17</v>
+        <v>66</v>
       </c>
       <c r="G26" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="H26" t="s">
-        <v>69</v>
-      </c>
-      <c r="I26" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="J26" s="2">
-        <v>0.19708605850399499</v>
+        <v>0.78084819934989003</v>
       </c>
       <c r="K26" s="2">
-        <v>0.85248630903591305</v>
+        <v>1.1650189858895901</v>
       </c>
       <c r="L26" s="2">
-        <v>2.72245074781776</v>
-      </c>
-      <c r="M26" s="2">
-        <v>3.5750805834353399</v>
-      </c>
+        <v>2.51032525521738</v>
+      </c>
+      <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B27">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="C27">
-        <v>2037</v>
+        <v>2029</v>
       </c>
       <c r="D27">
         <v>2060</v>
       </c>
       <c r="E27">
-        <v>2084</v>
+        <v>2086</v>
       </c>
       <c r="F27" t="s">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="G27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="H27" t="s">
         <v>69</v>
       </c>
       <c r="I27" t="s">
+        <v>70</v>
+      </c>
+      <c r="J27" s="2">
+        <v>0.19708605850399499</v>
+      </c>
+      <c r="K27" s="2">
+        <v>0.85248630903591305</v>
+      </c>
+      <c r="L27" s="2">
+        <v>2.72245074781776</v>
+      </c>
+      <c r="M27" s="2">
+        <v>3.5750805834353399</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28">
+        <v>2020</v>
+      </c>
+      <c r="C28">
+        <v>2037</v>
+      </c>
+      <c r="D28">
+        <v>2060</v>
+      </c>
+      <c r="E28">
+        <v>2084</v>
+      </c>
+      <c r="F28" t="s">
+        <v>72</v>
+      </c>
+      <c r="G28" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28" t="s">
         <v>74</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J28" s="2">
         <v>0.25636699817790398</v>
       </c>
-      <c r="K27" s="2">
+      <c r="K28" s="2">
         <v>1.4150692127368201</v>
       </c>
-      <c r="L27" s="2">
+      <c r="L28" s="2">
         <v>2.2598840219002199</v>
       </c>
-      <c r="M27" s="2">
+      <c r="M28" s="2">
         <v>3.8378899609600099</v>
       </c>
+    </row>
+    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
+      <c r="J49" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/data/gwl_lists/GWLs_CMIP5_all_models.xlsx
+++ b/data/gwl_lists/GWLs_CMIP5_all_models.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbecsi/Desktop/Arbeit/Qgis/data/AAR2/GWLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{549A614E-8145-2345-A84E-8477B4D19278}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F264B6B-87CA-4743-944E-816BFBEA0382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" xr2:uid="{F14C9CA9-83D9-2B46-A323-DF5833BB358B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
   <si>
     <t>Model</t>
   </si>
@@ -273,6 +273,87 @@
   </si>
   <si>
     <t>2061-2080</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp26_r12i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>HadGEM2-ES_rcp26_r1i1p1_200512-209911</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp26_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp26_r2i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>2007-2026</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp45_r12i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>2035-2054</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp45_r1i1p1_200601-209912</t>
+  </si>
+  <si>
+    <t>HadGEM2-ES_rcp45_r1i1p1_200512-209911</t>
+  </si>
+  <si>
+    <t>2069-2088</t>
+  </si>
+  <si>
+    <t>IPSL-CM5A-MR_rcp45_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>2068-2087</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp45_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp85_r12i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>2009-2028</t>
+  </si>
+  <si>
+    <t>2051-2070</t>
+  </si>
+  <si>
+    <t>EC-EARTH_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>2026-2045</t>
+  </si>
+  <si>
+    <t>2052-2071</t>
+  </si>
+  <si>
+    <t>2073-2092</t>
+  </si>
+  <si>
+    <t>HadGEM2-ES_rcp85_r1i1p1_200512-209912</t>
+  </si>
+  <si>
+    <t>2062-2081</t>
+  </si>
+  <si>
+    <t>IPSL-CM5A-MR_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>2041-2060</t>
+  </si>
+  <si>
+    <t>2057-2076</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>2072-2091</t>
   </si>
 </sst>
 </file>
@@ -658,7 +739,7 @@
   <dimension ref="A1:M49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+      <selection activeCell="R25" sqref="R25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -667,6 +748,7 @@
     <col min="2" max="5" width="5.5" bestFit="1" customWidth="1"/>
     <col min="6" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
@@ -802,117 +884,117 @@
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
       <c r="B6">
-        <v>2011</v>
-      </c>
-      <c r="C6">
-        <v>2032</v>
+        <v>2024</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
-      </c>
-      <c r="G6" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J6" s="2">
-        <v>0.36656778123640099</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0.89545909033877502</v>
-      </c>
+        <v>0.15918416752297701</v>
+      </c>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>80</v>
       </c>
       <c r="B7">
-        <v>2016</v>
-      </c>
-      <c r="C7">
-        <v>2047</v>
+        <v>2024</v>
       </c>
       <c r="F7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="J7" s="2">
-        <v>0.387773928972933</v>
-      </c>
-      <c r="K7" s="2">
-        <v>0.89021165758271004</v>
-      </c>
+        <v>1.3653254416148299</v>
+      </c>
+      <c r="K7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>2085</v>
+        <v>2011</v>
+      </c>
+      <c r="C8">
+        <v>2032</v>
       </c>
       <c r="F8" t="s">
-        <v>23</v>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
       </c>
       <c r="J8" s="2">
-        <v>1.41822244149666</v>
-      </c>
-      <c r="K8" s="2"/>
+        <v>0.36656778123640099</v>
+      </c>
+      <c r="K8" s="2">
+        <v>0.89545909033877502</v>
+      </c>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
-      </c>
-      <c r="J9" s="2"/>
-      <c r="K9" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="B9">
+        <v>2016</v>
+      </c>
+      <c r="C9">
+        <v>2047</v>
+      </c>
+      <c r="F9" t="s">
+        <v>20</v>
+      </c>
+      <c r="G9" t="s">
+        <v>21</v>
+      </c>
+      <c r="J9" s="2">
+        <v>0.387773928972933</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0.89021165758271004</v>
+      </c>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>25</v>
+        <v>81</v>
       </c>
       <c r="B10">
-        <v>2012</v>
-      </c>
-      <c r="C10">
-        <v>2044</v>
+        <v>2023</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G10" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="J10" s="2">
-        <v>0.24525560358096299</v>
-      </c>
-      <c r="K10" s="2">
-        <v>0.87075942812776297</v>
-      </c>
+        <v>0.56211865743001899</v>
+      </c>
+      <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="B11">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="F11" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="J11" s="2">
-        <v>0.46622947410301602</v>
+        <v>0.57081158955894795</v>
       </c>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
@@ -920,578 +1002,984 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="B12">
-        <v>2008</v>
-      </c>
-      <c r="C12">
-        <v>2024</v>
-      </c>
-      <c r="D12">
-        <v>2064</v>
+        <v>2085</v>
       </c>
       <c r="F12" t="s">
-        <v>9</v>
-      </c>
-      <c r="G12" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="J12" s="2">
-        <v>0.129441466154912</v>
-      </c>
-      <c r="K12" s="2">
-        <v>0.72195147761596201</v>
-      </c>
-      <c r="L12" s="2">
-        <v>1.7270701655635501</v>
-      </c>
+        <v>1.41822244149666</v>
+      </c>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
       <c r="M12" s="2"/>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>32</v>
-      </c>
-      <c r="B13">
-        <v>2038</v>
-      </c>
-      <c r="C13">
-        <v>2059</v>
-      </c>
-      <c r="F13" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" t="s">
-        <v>34</v>
-      </c>
-      <c r="J13" s="2">
-        <v>0.63252829487877804</v>
-      </c>
-      <c r="K13" s="2">
-        <v>1.610914836536</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="B14">
-        <v>2018</v>
+        <v>2012</v>
       </c>
       <c r="C14">
-        <v>2032</v>
-      </c>
-      <c r="D14">
-        <v>2076</v>
+        <v>2044</v>
       </c>
       <c r="F14" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" t="s">
-        <v>37</v>
+        <v>12</v>
       </c>
       <c r="J14" s="2">
-        <v>0.41300838611745899</v>
+        <v>0.24525560358096299</v>
       </c>
       <c r="K14" s="2">
-        <v>0.81726423192909303</v>
-      </c>
-      <c r="L14" s="2">
-        <v>1.8179915675410701</v>
-      </c>
+        <v>0.87075942812776297</v>
+      </c>
+      <c r="L14" s="2"/>
       <c r="M14" s="2"/>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="B15">
-        <v>2014</v>
-      </c>
-      <c r="C15">
-        <v>2031</v>
-      </c>
-      <c r="D15">
-        <v>2070</v>
+        <v>2023</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
-      </c>
-      <c r="G15" t="s">
-        <v>39</v>
-      </c>
-      <c r="H15" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="J15" s="2">
-        <v>0.26854250166147098</v>
-      </c>
-      <c r="K15" s="2">
-        <v>0.80277699364550803</v>
-      </c>
-      <c r="L15" s="2">
-        <v>1.9388497246635801</v>
-      </c>
+        <v>0.46622947410301602</v>
+      </c>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
       <c r="M15" s="2"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="B16">
-        <v>2042</v>
+        <v>2008</v>
       </c>
       <c r="C16">
-        <v>2068</v>
+        <v>2024</v>
+      </c>
+      <c r="D16">
+        <v>2064</v>
       </c>
       <c r="F16" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="G16" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="H16" t="s">
+        <v>31</v>
       </c>
       <c r="J16" s="2">
-        <v>1.04776215729892</v>
+        <v>0.129441466154912</v>
       </c>
       <c r="K16" s="2">
-        <v>1.4275242982087399</v>
-      </c>
-      <c r="L16" s="2"/>
+        <v>0.72195147761596201</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.7270701655635501</v>
+      </c>
       <c r="M16" s="2"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B17">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="C17">
-        <v>2074</v>
+        <v>2059</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="J17" s="2">
-        <v>1.2713410977964501</v>
+        <v>0.63252829487877804</v>
       </c>
       <c r="K17" s="2">
-        <v>1.85172906098548</v>
+        <v>1.610914836536</v>
       </c>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="B18">
-        <v>2012</v>
+        <v>2018</v>
       </c>
       <c r="C18">
-        <v>2035</v>
+        <v>2032</v>
+      </c>
+      <c r="D18">
+        <v>2076</v>
       </c>
       <c r="F18" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="G18" t="s">
-        <v>48</v>
+        <v>18</v>
+      </c>
+      <c r="H18" t="s">
+        <v>37</v>
       </c>
       <c r="J18" s="2">
-        <v>0.26356427112833902</v>
+        <v>0.41300838611745899</v>
       </c>
       <c r="K18" s="2">
-        <v>0.58958780640360797</v>
-      </c>
-      <c r="L18" s="2"/>
+        <v>0.81726423192909303</v>
+      </c>
+      <c r="L18" s="2">
+        <v>1.8179915675410701</v>
+      </c>
       <c r="M18" s="2"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="B19">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C19">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="F19" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="G19" t="s">
-        <v>12</v>
+        <v>85</v>
       </c>
       <c r="J19" s="2">
-        <v>0.24246749877933901</v>
+        <v>0.37880875913762102</v>
       </c>
       <c r="K19" s="2">
-        <v>1.0014052497016299</v>
+        <v>0.86234560615966405</v>
       </c>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>86</v>
       </c>
       <c r="B20">
-        <v>2009</v>
+        <v>2023</v>
       </c>
       <c r="C20">
-        <v>2023</v>
-      </c>
-      <c r="D20">
-        <v>2046</v>
-      </c>
-      <c r="E20">
-        <v>2065</v>
+        <v>2045</v>
       </c>
       <c r="F20" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="G20" t="s">
-        <v>28</v>
-      </c>
-      <c r="H20" t="s">
-        <v>53</v>
-      </c>
-      <c r="I20" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
       <c r="J20" s="2">
-        <v>5.2995370935565202E-2</v>
+        <v>0.457424211517724</v>
       </c>
       <c r="K20" s="2">
-        <v>0.77798350298852204</v>
-      </c>
-      <c r="L20" s="2">
-        <v>1.7631489506475</v>
-      </c>
-      <c r="M20" s="2">
-        <v>3.0385422035500298</v>
-      </c>
+        <v>0.62479549838627901</v>
+      </c>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>55</v>
+        <v>87</v>
       </c>
       <c r="B21">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="C21">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="D21">
-        <v>2068</v>
-      </c>
-      <c r="E21">
-        <v>2088</v>
+        <v>2079</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="G21" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="H21" t="s">
-        <v>43</v>
-      </c>
-      <c r="I21" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
       <c r="J21" s="2">
-        <v>0.80631215971271497</v>
+        <v>1.28844432176343</v>
       </c>
       <c r="K21" s="2">
-        <v>1.5717548309150999</v>
+        <v>1.99852194768752</v>
       </c>
       <c r="L21" s="2">
-        <v>2.6047206391182098</v>
-      </c>
-      <c r="M21" s="2">
-        <v>3.8460715047062499</v>
-      </c>
+        <v>2.8577991666382299</v>
+      </c>
+      <c r="M21" s="2"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B22">
         <v>2014</v>
       </c>
       <c r="C22">
-        <v>2027</v>
+        <v>2031</v>
       </c>
       <c r="D22">
-        <v>2050</v>
-      </c>
-      <c r="E22">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="F22" t="s">
         <v>14</v>
       </c>
       <c r="G22" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="H22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I22" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="J22" s="2">
-        <v>0.29994389569320301</v>
+        <v>0.26854250166147098</v>
       </c>
       <c r="K22" s="2">
-        <v>0.73833098234956296</v>
+        <v>0.80277699364550803</v>
       </c>
       <c r="L22" s="2">
-        <v>1.8766875938133201</v>
-      </c>
-      <c r="M22" s="2">
-        <v>3.2761420921043301</v>
-      </c>
+        <v>1.9388497246635801</v>
+      </c>
+      <c r="M22" s="2"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="B23">
-        <v>2023</v>
+        <v>2017</v>
       </c>
       <c r="C23">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="D23">
-        <v>2055</v>
-      </c>
-      <c r="E23">
-        <v>2071</v>
+        <v>2078</v>
       </c>
       <c r="F23" t="s">
-        <v>28</v>
+        <v>83</v>
       </c>
       <c r="G23" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
-      </c>
-      <c r="I23" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="J23" s="2">
-        <v>1.2547776910347199</v>
+        <v>0.36612952992296299</v>
       </c>
       <c r="K23" s="2">
-        <v>1.8814544179047701</v>
+        <v>0.83404442313203897</v>
       </c>
       <c r="L23" s="2">
-        <v>3.3167032989732199</v>
-      </c>
-      <c r="M23" s="2">
-        <v>4.9136741564842401</v>
-      </c>
+        <v>2.1307141433336501</v>
+      </c>
+      <c r="M23" s="2"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B24">
-        <v>2011</v>
+        <v>2023</v>
       </c>
       <c r="C24">
-        <v>2027</v>
-      </c>
-      <c r="D24">
-        <v>2048</v>
-      </c>
-      <c r="E24">
-        <v>2066</v>
+        <v>2045</v>
       </c>
       <c r="F24" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="G24" t="s">
-        <v>58</v>
-      </c>
-      <c r="H24" t="s">
-        <v>62</v>
-      </c>
-      <c r="I24" t="s">
-        <v>63</v>
+        <v>85</v>
       </c>
       <c r="J24" s="2">
-        <v>0.27716342078308198</v>
+        <v>0.27052468193900803</v>
       </c>
       <c r="K24" s="2">
-        <v>0.97698444790303796</v>
-      </c>
-      <c r="L24" s="2">
-        <v>2.1671324835882499</v>
-      </c>
-      <c r="M24" s="2">
-        <v>3.4109224743312501</v>
-      </c>
+        <v>0.99868554009331101</v>
+      </c>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="B25">
-        <v>2034</v>
+        <v>2042</v>
       </c>
       <c r="C25">
-        <v>2048</v>
-      </c>
-      <c r="D25">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="F25" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="G25" t="s">
-        <v>62</v>
-      </c>
-      <c r="H25" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J25" s="2">
-        <v>0.69072337680391005</v>
+        <v>1.04776215729892</v>
       </c>
       <c r="K25" s="2">
-        <v>1.39141197204587</v>
-      </c>
-      <c r="L25" s="2">
-        <v>2.5225286695692</v>
-      </c>
+        <v>1.4275242982087399</v>
+      </c>
+      <c r="L25" s="2"/>
       <c r="M25" s="2"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="B26">
-        <v>2033</v>
+        <v>2040</v>
       </c>
       <c r="C26">
-        <v>2050</v>
-      </c>
-      <c r="D26">
         <v>2074</v>
       </c>
       <c r="F26" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="G26" t="s">
-        <v>59</v>
-      </c>
-      <c r="H26" t="s">
         <v>46</v>
       </c>
       <c r="J26" s="2">
-        <v>0.78084819934989003</v>
+        <v>1.2713410977964501</v>
       </c>
       <c r="K26" s="2">
-        <v>1.1650189858895901</v>
-      </c>
-      <c r="L26" s="2">
-        <v>2.51032525521738</v>
-      </c>
+        <v>1.85172906098548</v>
+      </c>
+      <c r="L26" s="2"/>
       <c r="M26" s="2"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>47</v>
       </c>
       <c r="B27">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C27">
-        <v>2029</v>
-      </c>
-      <c r="D27">
-        <v>2060</v>
-      </c>
-      <c r="E27">
-        <v>2086</v>
+        <v>2035</v>
       </c>
       <c r="F27" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>68</v>
-      </c>
-      <c r="H27" t="s">
-        <v>69</v>
-      </c>
-      <c r="I27" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="J27" s="2">
-        <v>0.19708605850399499</v>
+        <v>0.26356427112833902</v>
       </c>
       <c r="K27" s="2">
-        <v>0.85248630903591305</v>
-      </c>
-      <c r="L27" s="2">
-        <v>2.72245074781776</v>
-      </c>
-      <c r="M27" s="2">
-        <v>3.5750805834353399</v>
-      </c>
+        <v>0.58958780640360797</v>
+      </c>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>49</v>
+      </c>
+      <c r="B28">
+        <v>2022</v>
+      </c>
+      <c r="C28">
+        <v>2044</v>
+      </c>
+      <c r="F28" t="s">
+        <v>50</v>
+      </c>
+      <c r="G28" t="s">
+        <v>12</v>
+      </c>
+      <c r="J28" s="2">
+        <v>0.24246749877933901</v>
+      </c>
+      <c r="K28" s="2">
+        <v>1.0014052497016299</v>
+      </c>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29">
+        <v>2009</v>
+      </c>
+      <c r="C29">
+        <v>2023</v>
+      </c>
+      <c r="D29">
+        <v>2046</v>
+      </c>
+      <c r="E29">
+        <v>2065</v>
+      </c>
+      <c r="F29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G29" t="s">
+        <v>28</v>
+      </c>
+      <c r="H29" t="s">
+        <v>53</v>
+      </c>
+      <c r="I29" t="s">
+        <v>54</v>
+      </c>
+      <c r="J29" s="2">
+        <v>5.2995370935565202E-2</v>
+      </c>
+      <c r="K29" s="2">
+        <v>0.77798350298852204</v>
+      </c>
+      <c r="L29" s="2">
+        <v>1.7631489506475</v>
+      </c>
+      <c r="M29" s="2">
+        <v>3.0385422035500298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30">
+        <v>2031</v>
+      </c>
+      <c r="C30">
+        <v>2046</v>
+      </c>
+      <c r="D30">
+        <v>2068</v>
+      </c>
+      <c r="E30">
+        <v>2088</v>
+      </c>
+      <c r="F30" t="s">
+        <v>39</v>
+      </c>
+      <c r="G30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I30" t="s">
+        <v>56</v>
+      </c>
+      <c r="J30" s="2">
+        <v>0.80631215971271497</v>
+      </c>
+      <c r="K30" s="2">
+        <v>1.5717548309150999</v>
+      </c>
+      <c r="L30" s="2">
+        <v>2.6047206391182098</v>
+      </c>
+      <c r="M30" s="2">
+        <v>3.8460715047062499</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31">
+        <v>2014</v>
+      </c>
+      <c r="C31">
+        <v>2027</v>
+      </c>
+      <c r="D31">
+        <v>2050</v>
+      </c>
+      <c r="E31">
+        <v>2069</v>
+      </c>
+      <c r="F31" t="s">
+        <v>14</v>
+      </c>
+      <c r="G31" t="s">
+        <v>58</v>
+      </c>
+      <c r="H31" t="s">
+        <v>59</v>
+      </c>
+      <c r="I31" t="s">
+        <v>60</v>
+      </c>
+      <c r="J31" s="2">
+        <v>0.29994389569320301</v>
+      </c>
+      <c r="K31" s="2">
+        <v>0.73833098234956296</v>
+      </c>
+      <c r="L31" s="2">
+        <v>1.8766875938133201</v>
+      </c>
+      <c r="M31" s="2">
+        <v>3.2761420921043301</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32">
+        <v>2019</v>
+      </c>
+      <c r="C32">
+        <v>2035</v>
+      </c>
+      <c r="D32">
+        <v>2061</v>
+      </c>
+      <c r="F32" t="s">
+        <v>93</v>
+      </c>
+      <c r="G32" t="s">
+        <v>48</v>
+      </c>
+      <c r="H32" t="s">
+        <v>94</v>
+      </c>
+      <c r="J32" s="2">
+        <v>0.32010671893003101</v>
+      </c>
+      <c r="K32" s="2">
+        <v>0.94183442623305202</v>
+      </c>
+      <c r="L32" s="2">
+        <v>1.93926760911421</v>
+      </c>
+      <c r="M32" s="2"/>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <v>2020</v>
+      </c>
+      <c r="C33">
+        <v>2036</v>
+      </c>
+      <c r="D33">
+        <v>2062</v>
+      </c>
+      <c r="E33">
+        <v>2083</v>
+      </c>
+      <c r="F33" t="s">
+        <v>72</v>
+      </c>
+      <c r="G33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" t="s">
+        <v>97</v>
+      </c>
+      <c r="I33" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" s="2">
+        <v>0.33111575072592803</v>
+      </c>
+      <c r="K33" s="2">
+        <v>0.90064316589890403</v>
+      </c>
+      <c r="L33" s="2">
+        <v>1.5027791696181101</v>
+      </c>
+      <c r="M33" s="2">
+        <v>2.9187363127111499</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34">
+        <v>2023</v>
+      </c>
+      <c r="C34">
+        <v>2035</v>
+      </c>
+      <c r="D34">
+        <v>2055</v>
+      </c>
+      <c r="E34">
+        <v>2071</v>
+      </c>
+      <c r="F34" t="s">
+        <v>28</v>
+      </c>
+      <c r="G34" t="s">
+        <v>48</v>
+      </c>
+      <c r="H34" t="s">
+        <v>77</v>
+      </c>
+      <c r="I34" t="s">
+        <v>78</v>
+      </c>
+      <c r="J34" s="2">
+        <v>1.2547776910347199</v>
+      </c>
+      <c r="K34" s="2">
+        <v>1.8814544179047701</v>
+      </c>
+      <c r="L34" s="2">
+        <v>3.3167032989732199</v>
+      </c>
+      <c r="M34" s="2">
+        <v>4.9136741564842401</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35">
+        <v>2024</v>
+      </c>
+      <c r="C35">
+        <v>2036</v>
+      </c>
+      <c r="D35">
+        <v>2055</v>
+      </c>
+      <c r="E35">
+        <v>2072</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+      <c r="G35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" t="s">
+        <v>77</v>
+      </c>
+      <c r="I35" t="s">
+        <v>100</v>
+      </c>
+      <c r="J35" s="2">
+        <v>1.2518766969956201</v>
+      </c>
+      <c r="K35" s="2">
+        <v>1.65339945881786</v>
+      </c>
+      <c r="L35" s="2">
+        <v>2.85472428786268</v>
+      </c>
+      <c r="M35" s="2">
+        <v>4.2617375100454602</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>61</v>
+      </c>
+      <c r="B36">
+        <v>2011</v>
+      </c>
+      <c r="C36">
+        <v>2027</v>
+      </c>
+      <c r="D36">
+        <v>2048</v>
+      </c>
+      <c r="E36">
+        <v>2066</v>
+      </c>
+      <c r="F36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" t="s">
+        <v>58</v>
+      </c>
+      <c r="H36" t="s">
+        <v>62</v>
+      </c>
+      <c r="I36" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0.27716342078308198</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0.97698444790303796</v>
+      </c>
+      <c r="L36" s="2">
+        <v>2.1671324835882499</v>
+      </c>
+      <c r="M36" s="2">
+        <v>3.4109224743312501</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B37">
+        <v>2016</v>
+      </c>
+      <c r="C37">
+        <v>2031</v>
+      </c>
+      <c r="D37">
+        <v>2051</v>
+      </c>
+      <c r="E37">
+        <v>2067</v>
+      </c>
+      <c r="F37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G37" t="s">
+        <v>39</v>
+      </c>
+      <c r="H37" t="s">
+        <v>102</v>
+      </c>
+      <c r="I37" t="s">
+        <v>103</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0.45625948782276199</v>
+      </c>
+      <c r="K37" s="2">
+        <v>0.70197696001481202</v>
+      </c>
+      <c r="L37" s="2">
+        <v>2.0070241649878402</v>
+      </c>
+      <c r="M37" s="2">
+        <v>3.2069946275303298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B38">
+        <v>2018</v>
+      </c>
+      <c r="C38">
+        <v>2038</v>
+      </c>
+      <c r="D38">
+        <v>2062</v>
+      </c>
+      <c r="E38">
+        <v>2082</v>
+      </c>
+      <c r="F38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G38" t="s">
+        <v>33</v>
+      </c>
+      <c r="H38" t="s">
+        <v>97</v>
+      </c>
+      <c r="I38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0.28053309122718101</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0.89448763529455499</v>
+      </c>
+      <c r="L38" s="2">
+        <v>2.13368631998694</v>
+      </c>
+      <c r="M38" s="2">
+        <v>3.25464655558264</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39">
+        <v>2034</v>
+      </c>
+      <c r="C39">
+        <v>2048</v>
+      </c>
+      <c r="D39">
+        <v>2070</v>
+      </c>
+      <c r="F39" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" t="s">
+        <v>40</v>
+      </c>
+      <c r="J39" s="2">
+        <v>0.69072337680391005</v>
+      </c>
+      <c r="K39" s="2">
+        <v>1.39141197204587</v>
+      </c>
+      <c r="L39" s="2">
+        <v>2.5225286695692</v>
+      </c>
+      <c r="M39" s="2"/>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>2033</v>
+      </c>
+      <c r="C40">
+        <v>2050</v>
+      </c>
+      <c r="D40">
+        <v>2074</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" t="s">
+        <v>59</v>
+      </c>
+      <c r="H40" t="s">
+        <v>46</v>
+      </c>
+      <c r="J40" s="2">
+        <v>0.78084819934989003</v>
+      </c>
+      <c r="K40" s="2">
+        <v>1.1650189858895901</v>
+      </c>
+      <c r="L40" s="2">
+        <v>2.51032525521738</v>
+      </c>
+      <c r="M40" s="2"/>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41">
+        <v>2011</v>
+      </c>
+      <c r="C41">
+        <v>2029</v>
+      </c>
+      <c r="D41">
+        <v>2060</v>
+      </c>
+      <c r="E41">
+        <v>2086</v>
+      </c>
+      <c r="F41" t="s">
+        <v>17</v>
+      </c>
+      <c r="G41" t="s">
+        <v>68</v>
+      </c>
+      <c r="H41" t="s">
+        <v>69</v>
+      </c>
+      <c r="I41" t="s">
+        <v>70</v>
+      </c>
+      <c r="J41" s="2">
+        <v>0.19708605850399499</v>
+      </c>
+      <c r="K41" s="2">
+        <v>0.85248630903591305</v>
+      </c>
+      <c r="L41" s="2">
+        <v>2.72245074781776</v>
+      </c>
+      <c r="M41" s="2">
+        <v>3.5750805834353399</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
         <v>71</v>
       </c>
-      <c r="B28">
+      <c r="B42">
         <v>2020</v>
       </c>
-      <c r="C28">
+      <c r="C42">
         <v>2037</v>
       </c>
-      <c r="D28">
+      <c r="D42">
         <v>2060</v>
       </c>
-      <c r="E28">
+      <c r="E42">
         <v>2084</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F42" t="s">
         <v>72</v>
       </c>
-      <c r="G28" t="s">
+      <c r="G42" t="s">
         <v>73</v>
       </c>
-      <c r="H28" t="s">
+      <c r="H42" t="s">
         <v>69</v>
       </c>
-      <c r="I28" t="s">
+      <c r="I42" t="s">
         <v>74</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J42" s="2">
         <v>0.25636699817790398</v>
       </c>
-      <c r="K28" s="2">
+      <c r="K42" s="2">
         <v>1.4150692127368201</v>
       </c>
-      <c r="L28" s="2">
+      <c r="L42" s="2">
         <v>2.2598840219002199</v>
       </c>
-      <c r="M28" s="2">
+      <c r="M42" s="2">
         <v>3.8378899609600099</v>
       </c>
     </row>

--- a/data/gwl_lists/GWLs_CMIP5_all_models.xlsx
+++ b/data/gwl_lists/GWLs_CMIP5_all_models.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bbecsi/Desktop/Arbeit/Qgis/data/AAR2/GWLs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F264B6B-87CA-4743-944E-816BFBEA0382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3C218AE-3D0A-F346-9CC0-3EB77811EC14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="22120" xr2:uid="{F14C9CA9-83D9-2B46-A323-DF5833BB358B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21860" xr2:uid="{F14C9CA9-83D9-2B46-A323-DF5833BB358B}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle2" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="143">
   <si>
     <t>Model</t>
   </si>
@@ -354,15 +354,125 @@
   </si>
   <si>
     <t>2072-2091</t>
+  </si>
+  <si>
+    <t>1.0°C</t>
+  </si>
+  <si>
+    <t>1984-2003</t>
+  </si>
+  <si>
+    <t>2003-2022</t>
+  </si>
+  <si>
+    <t>1992-2011</t>
+  </si>
+  <si>
+    <t>1994-2013</t>
+  </si>
+  <si>
+    <t>1985-2004</t>
+  </si>
+  <si>
+    <t>1989-2008</t>
+  </si>
+  <si>
+    <t>1986-2005</t>
+  </si>
+  <si>
+    <t>1988-2007</t>
+  </si>
+  <si>
+    <t>1993-2012</t>
+  </si>
+  <si>
+    <t>1991-2010</t>
+  </si>
+  <si>
+    <t>2000-2019</t>
+  </si>
+  <si>
+    <t>rcp26</t>
+  </si>
+  <si>
+    <t>rcp45</t>
+  </si>
+  <si>
+    <t>rcp60</t>
+  </si>
+  <si>
+    <t>rcp85</t>
+  </si>
+  <si>
+    <t>RCP</t>
+  </si>
+  <si>
+    <t>GFDL-ESM2M_rcp26_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>MIROC5_rcp26_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>GFDL-ESM2M_rcp60_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>2005-2024</t>
+  </si>
+  <si>
+    <t>2047-2066</t>
+  </si>
+  <si>
+    <t>2065-2084</t>
+  </si>
+  <si>
+    <t>HadGEM2-ES_rcp60_r1i1p1_200512-209911</t>
+  </si>
+  <si>
+    <t>2020-2039</t>
+  </si>
+  <si>
+    <t>2063-2082</t>
+  </si>
+  <si>
+    <t>IPSL-CM5A-LR_rcp60_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>MIROC5_rcp60_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>2043-2062</t>
+  </si>
+  <si>
+    <t>GFDL-ESM2M_rcp85_r1i1p1_200601-220012</t>
+  </si>
+  <si>
+    <t>2042-2061</t>
+  </si>
+  <si>
+    <t>2100-2119</t>
+  </si>
+  <si>
+    <t>MIROC5_rcp85_r1i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>2039-2058</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp45_r2i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>MPI-ESM-LR_rcp85_r2i1p1_200601-210012</t>
+  </si>
+  <si>
+    <t>2071-2090</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.000000000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -414,11 +524,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -440,9 +549,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -480,7 +589,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -586,7 +695,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -728,7 +837,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -736,1261 +845,2452 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD54D6C1-6F42-F64D-905A-EC4D8AA38A62}">
-  <dimension ref="A1:M49"/>
+  <dimension ref="A1:Q94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R25" sqref="R25"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="T67" sqref="T67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="9" width="9.83203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="13" width="5.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="12" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="17" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="39.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4" t="s">
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
+      <c r="F1" s="3"/>
+      <c r="G1" s="3"/>
+      <c r="H1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="I1" s="3"/>
+      <c r="J1" s="3"/>
+      <c r="K1" s="3"/>
+      <c r="L1" s="3"/>
+      <c r="M1" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="K1" s="4"/>
-      <c r="L1" s="4"/>
-      <c r="M1" s="4"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="N1" s="3"/>
+      <c r="O1" s="3"/>
+      <c r="P1" s="3"/>
+      <c r="Q1" s="3"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="I2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="J2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="M2" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="N2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="P2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="Q2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
-      <c r="B3">
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C3">
+        <v>1994</v>
+      </c>
+      <c r="D3">
         <v>2008</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>2025</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" t="s">
         <v>9</v>
       </c>
-      <c r="G3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="J3" s="2">
-        <v>4.6200519137934701E-2</v>
-      </c>
-      <c r="K3" s="2">
-        <v>0.48627946641713798</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M3" s="1">
+        <v>-0.21074557834198199</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4.6200519137931897E-2</v>
+      </c>
+      <c r="O3" s="1">
+        <v>0.48627946641713299</v>
+      </c>
+      <c r="P3" s="1"/>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>11</v>
       </c>
-      <c r="B4">
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+      <c r="C4">
+        <v>2013</v>
+      </c>
+      <c r="D4">
         <v>2044</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
         <v>12</v>
       </c>
-      <c r="J4" s="2">
-        <v>0.83663283039253999</v>
-      </c>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M4" s="1">
+        <v>0.229453512841962</v>
+      </c>
+      <c r="N4" s="1">
+        <v>0.83663283039255698</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>13</v>
       </c>
-      <c r="B5">
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5">
+        <v>2002</v>
+      </c>
+      <c r="D5">
         <v>2014</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>2034</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="G5" t="s">
+      <c r="J5" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="2">
-        <v>0.31774715847441198</v>
-      </c>
-      <c r="K5" s="2">
-        <v>0.96672905815973698</v>
-      </c>
-      <c r="L5" s="2"/>
-      <c r="M5" s="2"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M5" s="1">
+        <v>-0.18684662712942901</v>
+      </c>
+      <c r="N5" s="1">
+        <v>0.31774715847441498</v>
+      </c>
+      <c r="O5" s="1">
+        <v>0.96672905815974797</v>
+      </c>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>79</v>
       </c>
-      <c r="B6">
+      <c r="B6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C6">
+        <v>2004</v>
+      </c>
+      <c r="D6">
         <v>2024</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
+        <v>110</v>
+      </c>
+      <c r="I6" t="s">
         <v>30</v>
       </c>
-      <c r="J6" s="2">
-        <v>0.15918416752297701</v>
-      </c>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M6" s="1">
+        <v>3.6314344346899903E-2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>0.15918416752296499</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" t="s">
+        <v>118</v>
+      </c>
+      <c r="C7">
+        <v>2012</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="M7" s="1">
+        <v>4.1431497644524001E-2</v>
+      </c>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="B7">
+      <c r="B8" t="s">
+        <v>118</v>
+      </c>
+      <c r="C8">
+        <v>2011</v>
+      </c>
+      <c r="D8">
         <v>2024</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I8" t="s">
         <v>30</v>
       </c>
-      <c r="J7" s="2">
-        <v>1.3653254416148299</v>
-      </c>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+      <c r="M8" s="1">
+        <v>0.25174758103820499</v>
+      </c>
+      <c r="N8" s="1">
+        <v>1.36532544161481</v>
+      </c>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>16</v>
       </c>
-      <c r="B8">
+      <c r="B9" t="s">
+        <v>118</v>
+      </c>
+      <c r="C9">
+        <v>1995</v>
+      </c>
+      <c r="D9">
         <v>2011</v>
       </c>
-      <c r="C8">
+      <c r="E9">
         <v>2032</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H9" t="s">
+        <v>111</v>
+      </c>
+      <c r="I9" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
+      <c r="J9" t="s">
         <v>18</v>
       </c>
-      <c r="J8" s="2">
+      <c r="M9" s="1">
+        <v>-0.55520841810441601</v>
+      </c>
+      <c r="N9" s="1">
         <v>0.36656778123640099</v>
       </c>
-      <c r="K8" s="2">
+      <c r="O9" s="1">
         <v>0.89545909033877502</v>
       </c>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B9">
+      <c r="B10" t="s">
+        <v>118</v>
+      </c>
+      <c r="C10">
+        <v>2002</v>
+      </c>
+      <c r="D10">
         <v>2016</v>
       </c>
-      <c r="C9">
+      <c r="E10">
         <v>2047</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H10" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" t="s">
         <v>20</v>
       </c>
-      <c r="G9" t="s">
+      <c r="J10" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="2">
-        <v>0.387773928972933</v>
-      </c>
-      <c r="K9" s="2">
-        <v>0.89021165758271004</v>
-      </c>
-      <c r="L9" s="2"/>
-      <c r="M9" s="2"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+      <c r="M10" s="1">
+        <v>-0.13204792380273001</v>
+      </c>
+      <c r="N10" s="1">
+        <v>0.387773928972862</v>
+      </c>
+      <c r="O10" s="1">
+        <v>0.89021165758267395</v>
+      </c>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>124</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11">
+        <v>2018</v>
+      </c>
+      <c r="D11">
+        <v>2047</v>
+      </c>
+      <c r="H11" t="s">
+        <v>36</v>
+      </c>
+      <c r="I11" t="s">
+        <v>21</v>
+      </c>
+      <c r="M11" s="1">
+        <v>0.52588692336856502</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.1227295908791399</v>
+      </c>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
         <v>81</v>
       </c>
-      <c r="B10">
+      <c r="B12" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12">
+        <v>2004</v>
+      </c>
+      <c r="D12">
         <v>2023</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H12" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" t="s">
         <v>28</v>
       </c>
-      <c r="J10" s="2">
-        <v>0.56211865743001899</v>
-      </c>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
-      <c r="M10" s="2"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+      <c r="M12" s="1">
+        <v>-7.5753148396745407E-2</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0.56211865743007605</v>
+      </c>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
         <v>82</v>
       </c>
-      <c r="B11">
+      <c r="B13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C13">
+        <v>1999</v>
+      </c>
+      <c r="D13">
         <v>2017</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H13" t="s">
+        <v>112</v>
+      </c>
+      <c r="I13" t="s">
         <v>83</v>
       </c>
-      <c r="J11" s="2">
+      <c r="M13" s="1">
+        <v>-0.26302146911618202</v>
+      </c>
+      <c r="N13" s="1">
         <v>0.57081158955894795</v>
       </c>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
-      <c r="M11" s="2"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B12">
+      <c r="B14" t="s">
+        <v>118</v>
+      </c>
+      <c r="C14">
+        <v>2018</v>
+      </c>
+      <c r="D14">
         <v>2085</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H14" t="s">
+        <v>36</v>
+      </c>
+      <c r="I14" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="2">
+      <c r="M14" s="1">
+        <v>0.37590223241735699</v>
+      </c>
+      <c r="N14" s="1">
         <v>1.41822244149666</v>
       </c>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
-      <c r="M12" s="2"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
         <v>24</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-      <c r="M13" s="2"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15">
+        <v>2018</v>
+      </c>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.30083434493449202</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
         <v>25</v>
       </c>
-      <c r="B14">
+      <c r="B16" t="s">
+        <v>118</v>
+      </c>
+      <c r="C16">
+        <v>1996</v>
+      </c>
+      <c r="D16">
         <v>2012</v>
       </c>
-      <c r="C14">
+      <c r="E16">
         <v>2044</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H16" t="s">
+        <v>113</v>
+      </c>
+      <c r="I16" t="s">
         <v>26</v>
       </c>
-      <c r="G14" t="s">
+      <c r="J16" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="2">
-        <v>0.24525560358096299</v>
-      </c>
-      <c r="K14" s="2">
-        <v>0.87075942812776297</v>
-      </c>
-      <c r="L14" s="2"/>
-      <c r="M14" s="2"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+      <c r="M16" s="1">
+        <v>-0.179849872757327</v>
+      </c>
+      <c r="N16" s="1">
+        <v>0.24525560358099699</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.87075942812780605</v>
+      </c>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>27</v>
       </c>
-      <c r="B15">
+      <c r="B17" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17">
+        <v>1998</v>
+      </c>
+      <c r="D17">
         <v>2023</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
         <v>28</v>
       </c>
-      <c r="J15" s="2">
+      <c r="M17" s="1">
+        <v>2.80480420147938E-2</v>
+      </c>
+      <c r="N17" s="1">
         <v>0.46622947410301602</v>
       </c>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-      <c r="M15" s="2"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="B16">
+      <c r="B18" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18">
+        <v>1994</v>
+      </c>
+      <c r="D18">
         <v>2008</v>
       </c>
-      <c r="C16">
+      <c r="E18">
         <v>2024</v>
       </c>
-      <c r="D16">
+      <c r="F18">
         <v>2064</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" t="s">
         <v>9</v>
       </c>
-      <c r="G16" t="s">
+      <c r="J18" t="s">
         <v>30</v>
       </c>
-      <c r="H16" t="s">
+      <c r="K18" t="s">
         <v>31</v>
       </c>
-      <c r="J16" s="2">
-        <v>0.129441466154912</v>
-      </c>
-      <c r="K16" s="2">
-        <v>0.72195147761596201</v>
-      </c>
-      <c r="L16" s="2">
-        <v>1.7270701655635501</v>
-      </c>
-      <c r="M16" s="2"/>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="M18" s="1">
+        <v>-0.39601824725117402</v>
+      </c>
+      <c r="N18" s="1">
+        <v>0.129441466154847</v>
+      </c>
+      <c r="O18" s="1">
+        <v>0.72195147761589995</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.7270701655634999</v>
+      </c>
+      <c r="Q18" s="1"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>32</v>
       </c>
-      <c r="B17">
+      <c r="B19" t="s">
+        <v>119</v>
+      </c>
+      <c r="C19">
+        <v>2012</v>
+      </c>
+      <c r="D19">
         <v>2038</v>
       </c>
-      <c r="C17">
+      <c r="E19">
         <v>2059</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s">
         <v>33</v>
       </c>
-      <c r="G17" t="s">
+      <c r="J19" t="s">
         <v>34</v>
       </c>
-      <c r="J17" s="2">
-        <v>0.63252829487877804</v>
-      </c>
-      <c r="K17" s="2">
+      <c r="M19" s="1">
+        <v>0.28913515823351998</v>
+      </c>
+      <c r="N19" s="1">
+        <v>0.63252829487877504</v>
+      </c>
+      <c r="O19" s="1">
         <v>1.610914836536</v>
       </c>
-      <c r="L17" s="2"/>
-      <c r="M17" s="2"/>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
         <v>35</v>
       </c>
-      <c r="B18">
+      <c r="B20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C20">
+        <v>2003</v>
+      </c>
+      <c r="D20">
         <v>2018</v>
       </c>
-      <c r="C18">
+      <c r="E20">
         <v>2032</v>
       </c>
-      <c r="D18">
+      <c r="F20">
         <v>2076</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H20" t="s">
+        <v>115</v>
+      </c>
+      <c r="I20" t="s">
         <v>36</v>
       </c>
-      <c r="G18" t="s">
+      <c r="J20" t="s">
         <v>18</v>
       </c>
-      <c r="H18" t="s">
+      <c r="K20" t="s">
         <v>37</v>
       </c>
-      <c r="J18" s="2">
-        <v>0.41300838611745899</v>
-      </c>
-      <c r="K18" s="2">
-        <v>0.81726423192909303</v>
-      </c>
-      <c r="L18" s="2">
-        <v>1.8179915675410701</v>
-      </c>
-      <c r="M18" s="2"/>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="M20" s="1">
+        <v>-5.0954465512859301E-2</v>
+      </c>
+      <c r="N20" s="1">
+        <v>0.413008386117448</v>
+      </c>
+      <c r="O20" s="1">
+        <v>0.81726423192909003</v>
+      </c>
+      <c r="P20" s="1">
+        <v>1.8179915675410601</v>
+      </c>
+      <c r="Q20" s="1"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>84</v>
       </c>
-      <c r="B19">
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21">
+        <v>2004</v>
+      </c>
+      <c r="D21">
         <v>2023</v>
       </c>
-      <c r="C19">
+      <c r="E21">
         <v>2045</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I21" t="s">
         <v>28</v>
       </c>
-      <c r="G19" t="s">
+      <c r="J21" t="s">
         <v>85</v>
       </c>
-      <c r="J19" s="2">
-        <v>0.37880875913762102</v>
-      </c>
-      <c r="K19" s="2">
-        <v>0.86234560615966405</v>
-      </c>
-      <c r="L19" s="2"/>
-      <c r="M19" s="2"/>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="M21" s="1">
+        <v>-5.9416884547584897E-2</v>
+      </c>
+      <c r="N21" s="1">
+        <v>0.37880875913755502</v>
+      </c>
+      <c r="O21" s="1">
+        <v>0.862345606159581</v>
+      </c>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>86</v>
       </c>
-      <c r="B20">
+      <c r="B22" t="s">
+        <v>119</v>
+      </c>
+      <c r="C22">
+        <v>2003</v>
+      </c>
+      <c r="D22">
         <v>2023</v>
       </c>
-      <c r="C20">
+      <c r="E22">
         <v>2045</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H22" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22" t="s">
         <v>28</v>
       </c>
-      <c r="G20" t="s">
+      <c r="J22" t="s">
         <v>85</v>
       </c>
-      <c r="J20" s="2">
-        <v>0.457424211517724</v>
-      </c>
-      <c r="K20" s="2">
-        <v>0.62479549838627901</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="M22" s="1">
+        <v>3.9154959917209402E-2</v>
+      </c>
+      <c r="N22" s="1">
+        <v>0.45742421151766099</v>
+      </c>
+      <c r="O22" s="1">
+        <v>0.62479549838621395</v>
+      </c>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>87</v>
       </c>
-      <c r="B21">
+      <c r="B23" t="s">
+        <v>119</v>
+      </c>
+      <c r="C23">
+        <v>2012</v>
+      </c>
+      <c r="D23">
         <v>2029</v>
       </c>
-      <c r="C21">
+      <c r="E23">
         <v>2044</v>
       </c>
-      <c r="D21">
+      <c r="F23">
         <v>2079</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H23" t="s">
+        <v>26</v>
+      </c>
+      <c r="I23" t="s">
         <v>68</v>
       </c>
-      <c r="G21" t="s">
+      <c r="J23" t="s">
         <v>12</v>
       </c>
-      <c r="H21" t="s">
+      <c r="K23" t="s">
         <v>88</v>
       </c>
-      <c r="J21" s="2">
+      <c r="M23" s="1">
+        <v>0.40727930284484998</v>
+      </c>
+      <c r="N23" s="1">
         <v>1.28844432176343</v>
       </c>
-      <c r="K21" s="2">
-        <v>1.99852194768752</v>
-      </c>
-      <c r="L21" s="2">
-        <v>2.8577991666382299</v>
-      </c>
-      <c r="M21" s="2"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="O23" s="1">
+        <v>1.99852194768753</v>
+      </c>
+      <c r="P23" s="1">
+        <v>2.8577991666382099</v>
+      </c>
+      <c r="Q23" s="1"/>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>38</v>
       </c>
-      <c r="B22">
+      <c r="B24" t="s">
+        <v>119</v>
+      </c>
+      <c r="C24">
+        <v>1995</v>
+      </c>
+      <c r="D24">
         <v>2014</v>
       </c>
-      <c r="C22">
+      <c r="E24">
         <v>2031</v>
       </c>
-      <c r="D22">
+      <c r="F24">
         <v>2070</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H24" t="s">
+        <v>111</v>
+      </c>
+      <c r="I24" t="s">
         <v>14</v>
       </c>
-      <c r="G22" t="s">
+      <c r="J24" t="s">
         <v>39</v>
       </c>
-      <c r="H22" t="s">
+      <c r="K24" t="s">
         <v>40</v>
       </c>
-      <c r="J22" s="2">
+      <c r="M24" s="1">
+        <v>-0.45394431220164499</v>
+      </c>
+      <c r="N24" s="1">
         <v>0.26854250166147098</v>
       </c>
-      <c r="K22" s="2">
+      <c r="O24" s="1">
         <v>0.80277699364550803</v>
       </c>
-      <c r="L22" s="2">
+      <c r="P24" s="1">
         <v>1.9388497246635801</v>
       </c>
-      <c r="M22" s="2"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="Q24" s="1"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>89</v>
       </c>
-      <c r="B23">
+      <c r="B25" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25">
+        <v>2002</v>
+      </c>
+      <c r="D25">
         <v>2017</v>
       </c>
-      <c r="C23">
+      <c r="E25">
         <v>2034</v>
       </c>
-      <c r="D23">
+      <c r="F25">
         <v>2078</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H25" t="s">
+        <v>109</v>
+      </c>
+      <c r="I25" t="s">
         <v>83</v>
       </c>
-      <c r="G23" t="s">
+      <c r="J25" t="s">
         <v>15</v>
       </c>
-      <c r="H23" t="s">
+      <c r="K25" t="s">
         <v>90</v>
       </c>
-      <c r="J23" s="2">
-        <v>0.36612952992296299</v>
-      </c>
-      <c r="K23" s="2">
-        <v>0.83404442313203897</v>
-      </c>
-      <c r="L23" s="2">
-        <v>2.1307141433336501</v>
-      </c>
-      <c r="M23" s="2"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="M25" s="1">
+        <v>-0.16210182039905299</v>
+      </c>
+      <c r="N25" s="1">
+        <v>0.36612952992298298</v>
+      </c>
+      <c r="O25" s="1">
+        <v>0.83404442313206095</v>
+      </c>
+      <c r="P25" s="1">
+        <v>2.13071414333367</v>
+      </c>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>91</v>
       </c>
-      <c r="B24">
+      <c r="B26" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26">
+        <v>2003</v>
+      </c>
+      <c r="D26">
         <v>2023</v>
       </c>
-      <c r="C24">
+      <c r="E26">
         <v>2045</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H26" t="s">
+        <v>115</v>
+      </c>
+      <c r="I26" t="s">
         <v>28</v>
       </c>
-      <c r="G24" t="s">
+      <c r="J26" t="s">
         <v>85</v>
       </c>
-      <c r="J24" s="2">
+      <c r="M26" s="1">
+        <v>2.8218799167203198E-2</v>
+      </c>
+      <c r="N26" s="1">
         <v>0.27052468193900803</v>
       </c>
-      <c r="K24" s="2">
+      <c r="O26" s="1">
         <v>0.99868554009331101</v>
       </c>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>140</v>
+      </c>
+      <c r="B27" t="s">
+        <v>119</v>
+      </c>
+      <c r="C27">
+        <v>1998</v>
+      </c>
+      <c r="D27">
+        <v>2020</v>
+      </c>
+      <c r="E27">
+        <v>2042</v>
+      </c>
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="M27" s="1">
+        <v>-0.18788965013287101</v>
+      </c>
+      <c r="N27" s="1">
+        <v>0.33570336235898401</v>
+      </c>
+      <c r="O27" s="1">
+        <v>0.96340086195208396</v>
+      </c>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
         <v>41</v>
       </c>
-      <c r="B25">
+      <c r="B28" t="s">
+        <v>119</v>
+      </c>
+      <c r="C28">
+        <v>2018</v>
+      </c>
+      <c r="D28">
         <v>2042</v>
       </c>
-      <c r="C25">
+      <c r="E28">
         <v>2068</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H28" t="s">
+        <v>36</v>
+      </c>
+      <c r="I28" t="s">
         <v>42</v>
       </c>
-      <c r="G25" t="s">
+      <c r="J28" t="s">
         <v>43</v>
       </c>
-      <c r="J25" s="2">
-        <v>1.04776215729892</v>
-      </c>
-      <c r="K25" s="2">
-        <v>1.4275242982087399</v>
-      </c>
-      <c r="L25" s="2"/>
-      <c r="M25" s="2"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="M28" s="1">
+        <v>0.529807521678753</v>
+      </c>
+      <c r="N28" s="1">
+        <v>1.04776215729887</v>
+      </c>
+      <c r="O28" s="1">
+        <v>1.42752429820869</v>
+      </c>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>44</v>
       </c>
-      <c r="B26">
+      <c r="B29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29">
+        <v>2019</v>
+      </c>
+      <c r="D29">
         <v>2040</v>
       </c>
-      <c r="C26">
+      <c r="E29">
         <v>2074</v>
       </c>
-      <c r="F26" t="s">
+      <c r="H29" t="s">
+        <v>93</v>
+      </c>
+      <c r="I29" t="s">
         <v>45</v>
       </c>
-      <c r="G26" t="s">
+      <c r="J29" t="s">
         <v>46</v>
       </c>
-      <c r="J26" s="2">
+      <c r="M29" s="1">
+        <v>0.335864667539297</v>
+      </c>
+      <c r="N29" s="1">
         <v>1.2713410977964501</v>
       </c>
-      <c r="K26" s="2">
+      <c r="O29" s="1">
         <v>1.85172906098548</v>
       </c>
-      <c r="L26" s="2"/>
-      <c r="M26" s="2"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
         <v>47</v>
       </c>
-      <c r="B27">
+      <c r="B30" t="s">
+        <v>119</v>
+      </c>
+      <c r="C30">
+        <v>1996</v>
+      </c>
+      <c r="D30">
         <v>2012</v>
       </c>
-      <c r="C27">
+      <c r="E30">
         <v>2035</v>
       </c>
-      <c r="F27" t="s">
+      <c r="H30" t="s">
+        <v>113</v>
+      </c>
+      <c r="I30" t="s">
         <v>26</v>
       </c>
-      <c r="G27" t="s">
+      <c r="J30" t="s">
         <v>48</v>
       </c>
-      <c r="J27" s="2">
-        <v>0.26356427112833902</v>
-      </c>
-      <c r="K27" s="2">
-        <v>0.58958780640360797</v>
-      </c>
-      <c r="L27" s="2"/>
-      <c r="M27" s="2"/>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="M30" s="1">
+        <v>-0.172832617837028</v>
+      </c>
+      <c r="N30" s="1">
+        <v>0.26356427112849001</v>
+      </c>
+      <c r="O30" s="1">
+        <v>0.58958780640375896</v>
+      </c>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
         <v>49</v>
       </c>
-      <c r="B28">
+      <c r="B31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C31">
+        <v>1998</v>
+      </c>
+      <c r="D31">
         <v>2022</v>
       </c>
-      <c r="C28">
+      <c r="E31">
         <v>2044</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" t="s">
         <v>50</v>
       </c>
-      <c r="G28" t="s">
+      <c r="J31" t="s">
         <v>12</v>
       </c>
-      <c r="J28" s="2">
-        <v>0.24246749877933901</v>
-      </c>
-      <c r="K28" s="2">
-        <v>1.0014052497016299</v>
-      </c>
-      <c r="L28" s="2"/>
-      <c r="M28" s="2"/>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>51</v>
-      </c>
-      <c r="B29">
-        <v>2009</v>
-      </c>
-      <c r="C29">
-        <v>2023</v>
-      </c>
-      <c r="D29">
-        <v>2046</v>
-      </c>
-      <c r="E29">
-        <v>2065</v>
-      </c>
-      <c r="F29" t="s">
-        <v>52</v>
-      </c>
-      <c r="G29" t="s">
-        <v>28</v>
-      </c>
-      <c r="H29" t="s">
-        <v>53</v>
-      </c>
-      <c r="I29" t="s">
-        <v>54</v>
-      </c>
-      <c r="J29" s="2">
-        <v>5.2995370935565202E-2</v>
-      </c>
-      <c r="K29" s="2">
-        <v>0.77798350298852204</v>
-      </c>
-      <c r="L29" s="2">
-        <v>1.7631489506475</v>
-      </c>
-      <c r="M29" s="2">
-        <v>3.0385422035500298</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>55</v>
-      </c>
-      <c r="B30">
-        <v>2031</v>
-      </c>
-      <c r="C30">
-        <v>2046</v>
-      </c>
-      <c r="D30">
-        <v>2068</v>
-      </c>
-      <c r="E30">
-        <v>2088</v>
-      </c>
-      <c r="F30" t="s">
-        <v>39</v>
-      </c>
-      <c r="G30" t="s">
-        <v>53</v>
-      </c>
-      <c r="H30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I30" t="s">
-        <v>56</v>
-      </c>
-      <c r="J30" s="2">
-        <v>0.80631215971271497</v>
-      </c>
-      <c r="K30" s="2">
-        <v>1.5717548309150999</v>
-      </c>
-      <c r="L30" s="2">
-        <v>2.6047206391182098</v>
-      </c>
-      <c r="M30" s="2">
-        <v>3.8460715047062499</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>57</v>
-      </c>
-      <c r="B31">
-        <v>2014</v>
-      </c>
-      <c r="C31">
-        <v>2027</v>
-      </c>
-      <c r="D31">
-        <v>2050</v>
-      </c>
-      <c r="E31">
-        <v>2069</v>
-      </c>
-      <c r="F31" t="s">
-        <v>14</v>
-      </c>
-      <c r="G31" t="s">
-        <v>58</v>
-      </c>
-      <c r="H31" t="s">
-        <v>59</v>
-      </c>
-      <c r="I31" t="s">
-        <v>60</v>
-      </c>
-      <c r="J31" s="2">
-        <v>0.29994389569320301</v>
-      </c>
-      <c r="K31" s="2">
-        <v>0.73833098234956296</v>
-      </c>
-      <c r="L31" s="2">
-        <v>1.8766875938133201</v>
-      </c>
-      <c r="M31" s="2">
-        <v>3.2761420921043301</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="M31" s="1">
+        <v>-4.2459869384785499E-2</v>
+      </c>
+      <c r="N31" s="1">
+        <v>0.242467498779285</v>
+      </c>
+      <c r="O31" s="1">
+        <v>1.00140524970157</v>
+      </c>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32">
-        <v>2019</v>
+        <v>125</v>
+      </c>
+      <c r="B32" t="s">
+        <v>120</v>
       </c>
       <c r="C32">
-        <v>2035</v>
+        <v>2015</v>
       </c>
       <c r="D32">
-        <v>2061</v>
-      </c>
-      <c r="F32" t="s">
-        <v>93</v>
-      </c>
-      <c r="G32" t="s">
-        <v>48</v>
+        <v>2057</v>
+      </c>
+      <c r="E32">
+        <v>2075</v>
       </c>
       <c r="H32" t="s">
-        <v>94</v>
-      </c>
-      <c r="J32" s="2">
-        <v>0.32010671893003101</v>
-      </c>
-      <c r="K32" s="2">
-        <v>0.94183442623305202</v>
-      </c>
-      <c r="L32" s="2">
-        <v>1.93926760911421</v>
-      </c>
-      <c r="M32" s="2"/>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+        <v>126</v>
+      </c>
+      <c r="I32" t="s">
+        <v>127</v>
+      </c>
+      <c r="J32" t="s">
+        <v>128</v>
+      </c>
+      <c r="M32" s="1">
+        <v>0.15001634668429001</v>
+      </c>
+      <c r="N32" s="1">
+        <v>0.38589179427543102</v>
+      </c>
+      <c r="O32" s="1">
+        <v>1.52718885916258</v>
+      </c>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B33">
-        <v>2020</v>
+        <v>129</v>
+      </c>
+      <c r="B33" t="s">
+        <v>120</v>
       </c>
       <c r="C33">
-        <v>2036</v>
+        <v>2011</v>
       </c>
       <c r="D33">
-        <v>2062</v>
+        <v>2030</v>
       </c>
       <c r="E33">
-        <v>2083</v>
-      </c>
-      <c r="F33" t="s">
-        <v>72</v>
-      </c>
-      <c r="G33" t="s">
-        <v>96</v>
+        <v>2048</v>
+      </c>
+      <c r="F33">
+        <v>2073</v>
       </c>
       <c r="H33" t="s">
-        <v>97</v>
+        <v>17</v>
       </c>
       <c r="I33" t="s">
-        <v>98</v>
-      </c>
-      <c r="J33" s="2">
-        <v>0.33111575072592803</v>
-      </c>
-      <c r="K33" s="2">
-        <v>0.90064316589890403</v>
-      </c>
-      <c r="L33" s="2">
-        <v>1.5027791696181101</v>
-      </c>
-      <c r="M33" s="2">
-        <v>2.9187363127111499</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="J33" t="s">
+        <v>62</v>
+      </c>
+      <c r="K33" t="s">
+        <v>131</v>
+      </c>
+      <c r="M33" s="1">
+        <v>0.21552513212388599</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1.29801221619476</v>
+      </c>
+      <c r="O33" s="1">
+        <v>1.60524281138041</v>
+      </c>
+      <c r="P33" s="1">
+        <v>3.2878026632470698</v>
+      </c>
+      <c r="Q33" s="1"/>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34">
-        <v>2023</v>
+        <v>132</v>
+      </c>
+      <c r="B34" t="s">
+        <v>120</v>
       </c>
       <c r="C34">
-        <v>2035</v>
+        <v>1995</v>
       </c>
       <c r="D34">
-        <v>2055</v>
+        <v>2013</v>
       </c>
       <c r="E34">
-        <v>2071</v>
-      </c>
-      <c r="F34" t="s">
-        <v>28</v>
-      </c>
-      <c r="G34" t="s">
-        <v>48</v>
+        <v>2033</v>
+      </c>
+      <c r="F34">
+        <v>2072</v>
       </c>
       <c r="H34" t="s">
-        <v>77</v>
+        <v>111</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
-      </c>
-      <c r="J34" s="2">
-        <v>1.2547776910347199</v>
-      </c>
-      <c r="K34" s="2">
-        <v>1.8814544179047701</v>
-      </c>
-      <c r="L34" s="2">
-        <v>3.3167032989732199</v>
-      </c>
-      <c r="M34" s="2">
-        <v>4.9136741564842401</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+      <c r="J34" t="s">
+        <v>66</v>
+      </c>
+      <c r="K34" t="s">
+        <v>100</v>
+      </c>
+      <c r="M34" s="1">
+        <v>-0.49902195400663901</v>
+      </c>
+      <c r="N34" s="1">
+        <v>0.36962771945526901</v>
+      </c>
+      <c r="O34" s="1">
+        <v>0.753180906507671</v>
+      </c>
+      <c r="P34" s="1">
+        <v>2.0248300128512602</v>
+      </c>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>99</v>
-      </c>
-      <c r="B35">
-        <v>2024</v>
+        <v>133</v>
+      </c>
+      <c r="B35" t="s">
+        <v>120</v>
       </c>
       <c r="C35">
-        <v>2036</v>
+        <v>2025</v>
       </c>
       <c r="D35">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="E35">
         <v>2072</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" t="s">
+        <v>100</v>
+      </c>
+      <c r="M35" s="1">
+        <v>0.32571564206056902</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1.54297145524446</v>
+      </c>
+      <c r="O35" s="1">
+        <v>2.20518981115766</v>
+      </c>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36">
+        <v>1994</v>
+      </c>
+      <c r="D36">
+        <v>2009</v>
+      </c>
+      <c r="E36">
+        <v>2023</v>
+      </c>
+      <c r="F36">
+        <v>2046</v>
+      </c>
+      <c r="G36">
+        <v>2065</v>
+      </c>
+      <c r="H36" t="s">
+        <v>107</v>
+      </c>
+      <c r="I36" t="s">
+        <v>52</v>
+      </c>
+      <c r="J36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K36" t="s">
+        <v>53</v>
+      </c>
+      <c r="L36" t="s">
+        <v>54</v>
+      </c>
+      <c r="M36" s="1">
+        <v>-0.245385120533126</v>
+      </c>
+      <c r="N36" s="1">
+        <v>5.2995370935505499E-2</v>
+      </c>
+      <c r="O36" s="1">
+        <v>0.77798350298846797</v>
+      </c>
+      <c r="P36" s="1">
+        <v>1.76314895064743</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>3.0385422035499898</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37">
+        <v>2012</v>
+      </c>
+      <c r="D37">
+        <v>2031</v>
+      </c>
+      <c r="E37">
+        <v>2046</v>
+      </c>
+      <c r="F37">
+        <v>2068</v>
+      </c>
+      <c r="G37">
+        <v>2088</v>
+      </c>
+      <c r="H37" t="s">
+        <v>26</v>
+      </c>
+      <c r="I37" t="s">
+        <v>39</v>
+      </c>
+      <c r="J37" t="s">
+        <v>53</v>
+      </c>
+      <c r="K37" t="s">
+        <v>43</v>
+      </c>
+      <c r="L37" t="s">
+        <v>56</v>
+      </c>
+      <c r="M37" s="1">
+        <v>0.154818843626125</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.80631215971277403</v>
+      </c>
+      <c r="O37" s="1">
+        <v>1.5717548309151701</v>
+      </c>
+      <c r="P37" s="1">
+        <v>2.60472063911826</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>3.8460715047063099</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38">
+        <v>2001</v>
+      </c>
+      <c r="D38">
+        <v>2014</v>
+      </c>
+      <c r="E38">
+        <v>2027</v>
+      </c>
+      <c r="F38">
+        <v>2050</v>
+      </c>
+      <c r="G38">
+        <v>2069</v>
+      </c>
+      <c r="H38" t="s">
+        <v>116</v>
+      </c>
+      <c r="I38" t="s">
+        <v>14</v>
+      </c>
+      <c r="J38" t="s">
+        <v>58</v>
+      </c>
+      <c r="K38" t="s">
+        <v>59</v>
+      </c>
+      <c r="L38" t="s">
+        <v>60</v>
+      </c>
+      <c r="M38" s="1">
+        <v>-0.13517857304316799</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.29994389569326602</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.73833098234962902</v>
+      </c>
+      <c r="P38" s="1">
+        <v>1.87668759381338</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>3.27614209210439</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39">
+        <v>2004</v>
+      </c>
+      <c r="D39">
+        <v>2019</v>
+      </c>
+      <c r="E39">
+        <v>2035</v>
+      </c>
+      <c r="F39">
+        <v>2061</v>
+      </c>
+      <c r="H39" t="s">
+        <v>110</v>
+      </c>
+      <c r="I39" t="s">
+        <v>93</v>
+      </c>
+      <c r="J39" t="s">
+        <v>48</v>
+      </c>
+      <c r="K39" t="s">
+        <v>94</v>
+      </c>
+      <c r="M39" s="1">
+        <v>-2.7899969907076601E-2</v>
+      </c>
+      <c r="N39" s="1">
+        <v>0.320106718929977</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.94183442623298397</v>
+      </c>
+      <c r="P39" s="1">
+        <v>1.9392676091141401</v>
+      </c>
+      <c r="Q39" s="1"/>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40">
+        <v>2002</v>
+      </c>
+      <c r="D40">
+        <v>2020</v>
+      </c>
+      <c r="E40">
+        <v>2036</v>
+      </c>
+      <c r="F40">
+        <v>2062</v>
+      </c>
+      <c r="G40">
+        <v>2083</v>
+      </c>
+      <c r="H40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40" t="s">
+        <v>72</v>
+      </c>
+      <c r="J40" t="s">
+        <v>96</v>
+      </c>
+      <c r="K40" t="s">
+        <v>97</v>
+      </c>
+      <c r="L40" t="s">
+        <v>98</v>
+      </c>
+      <c r="M40" s="1">
+        <v>-9.8966341950836006E-2</v>
+      </c>
+      <c r="N40" s="1">
+        <v>0.33111575072586202</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.90064316589882698</v>
+      </c>
+      <c r="P40" s="1">
+        <v>1.5027791696180499</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>2.9187363127110801</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41">
+        <v>2011</v>
+      </c>
+      <c r="D41">
+        <v>2023</v>
+      </c>
+      <c r="E41">
+        <v>2035</v>
+      </c>
+      <c r="F41">
+        <v>2055</v>
+      </c>
+      <c r="G41">
+        <v>2071</v>
+      </c>
+      <c r="H41" t="s">
+        <v>17</v>
+      </c>
+      <c r="I41" t="s">
+        <v>28</v>
+      </c>
+      <c r="J41" t="s">
+        <v>48</v>
+      </c>
+      <c r="K41" t="s">
+        <v>77</v>
+      </c>
+      <c r="L41" t="s">
+        <v>78</v>
+      </c>
+      <c r="M41" s="1">
+        <v>0.48426792881735398</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1.2547776910347099</v>
+      </c>
+      <c r="O41" s="1">
+        <v>1.8814544179047801</v>
+      </c>
+      <c r="P41" s="1">
+        <v>3.3167032989732301</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>4.9136741564842499</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>135</v>
+      </c>
+      <c r="B42" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42">
+        <v>2015</v>
+      </c>
+      <c r="D42">
+        <v>2037</v>
+      </c>
+      <c r="E42">
+        <v>2052</v>
+      </c>
+      <c r="F42">
+        <v>2083</v>
+      </c>
+      <c r="G42">
+        <v>2110</v>
+      </c>
+      <c r="H42" t="s">
+        <v>126</v>
+      </c>
+      <c r="I42" t="s">
+        <v>73</v>
+      </c>
+      <c r="J42" t="s">
+        <v>136</v>
+      </c>
+      <c r="K42" t="s">
+        <v>98</v>
+      </c>
+      <c r="L42" t="s">
+        <v>137</v>
+      </c>
+      <c r="M42" s="1">
+        <v>0.19988880863892799</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1.0197816071686501</v>
+      </c>
+      <c r="O42" s="1">
+        <v>1.3397641782407099</v>
+      </c>
+      <c r="P42" s="1">
+        <v>2.5377085226552998</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>4.0373841038456302</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>99</v>
+      </c>
+      <c r="B43" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43">
+        <v>2010</v>
+      </c>
+      <c r="D43">
+        <v>2024</v>
+      </c>
+      <c r="E43">
+        <v>2036</v>
+      </c>
+      <c r="F43">
+        <v>2055</v>
+      </c>
+      <c r="G43">
+        <v>2072</v>
+      </c>
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" t="s">
         <v>30</v>
       </c>
-      <c r="G35" t="s">
+      <c r="J43" t="s">
         <v>96</v>
       </c>
-      <c r="H35" t="s">
+      <c r="K43" t="s">
         <v>77</v>
       </c>
-      <c r="I35" t="s">
+      <c r="L43" t="s">
         <v>100</v>
       </c>
-      <c r="J35" s="2">
+      <c r="M43" s="1">
+        <v>0.221911094793424</v>
+      </c>
+      <c r="N43" s="1">
         <v>1.2518766969956201</v>
       </c>
-      <c r="K35" s="2">
+      <c r="O43" s="1">
         <v>1.65339945881786</v>
       </c>
-      <c r="L35" s="2">
-        <v>2.85472428786268</v>
-      </c>
-      <c r="M35" s="2">
-        <v>4.2617375100454602</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="P43" s="1">
+        <v>2.8547242878626702</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>4.2617375100454398</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
         <v>61</v>
       </c>
-      <c r="B36">
+      <c r="B44" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44">
+        <v>1995</v>
+      </c>
+      <c r="D44">
         <v>2011</v>
       </c>
-      <c r="C36">
+      <c r="E44">
         <v>2027</v>
       </c>
-      <c r="D36">
+      <c r="F44">
         <v>2048</v>
       </c>
-      <c r="E36">
+      <c r="G44">
         <v>2066</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H44" t="s">
+        <v>111</v>
+      </c>
+      <c r="I44" t="s">
         <v>17</v>
       </c>
-      <c r="G36" t="s">
+      <c r="J44" t="s">
         <v>58</v>
       </c>
-      <c r="H36" t="s">
+      <c r="K44" t="s">
         <v>62</v>
       </c>
-      <c r="I36" t="s">
+      <c r="L44" t="s">
         <v>63</v>
       </c>
-      <c r="J36" s="2">
+      <c r="M44" s="1">
+        <v>-0.37639969719787097</v>
+      </c>
+      <c r="N44" s="1">
         <v>0.27716342078308198</v>
       </c>
-      <c r="K36" s="2">
+      <c r="O44" s="1">
         <v>0.97698444790303796</v>
       </c>
-      <c r="L36" s="2">
+      <c r="P44" s="1">
         <v>2.1671324835882499</v>
       </c>
-      <c r="M36" s="2">
+      <c r="Q44" s="1">
         <v>3.4109224743312501</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
         <v>101</v>
       </c>
-      <c r="B37">
+      <c r="B45" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45">
+        <v>2002</v>
+      </c>
+      <c r="D45">
         <v>2016</v>
       </c>
-      <c r="C37">
+      <c r="E45">
         <v>2031</v>
       </c>
-      <c r="D37">
+      <c r="F45">
         <v>2051</v>
       </c>
-      <c r="E37">
+      <c r="G45">
         <v>2067</v>
       </c>
-      <c r="F37" t="s">
+      <c r="H45" t="s">
+        <v>109</v>
+      </c>
+      <c r="I45" t="s">
         <v>20</v>
       </c>
-      <c r="G37" t="s">
+      <c r="J45" t="s">
         <v>39</v>
       </c>
-      <c r="H37" t="s">
+      <c r="K45" t="s">
         <v>102</v>
       </c>
-      <c r="I37" t="s">
+      <c r="L45" t="s">
         <v>103</v>
       </c>
-      <c r="J37" s="2">
-        <v>0.45625948782276199</v>
-      </c>
-      <c r="K37" s="2">
-        <v>0.70197696001481202</v>
-      </c>
-      <c r="L37" s="2">
-        <v>2.0070241649878402</v>
-      </c>
-      <c r="M37" s="2">
-        <v>3.2069946275303298</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="M45" s="1">
+        <v>-0.221694615705123</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0.45625948782275999</v>
+      </c>
+      <c r="O45" s="1">
+        <v>0.70197696001480103</v>
+      </c>
+      <c r="P45" s="1">
+        <v>2.00702416498785</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>3.20699462753034</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>138</v>
+      </c>
+      <c r="B46" t="s">
+        <v>121</v>
+      </c>
+      <c r="C46">
+        <v>2017</v>
+      </c>
+      <c r="D46">
+        <v>2034</v>
+      </c>
+      <c r="E46">
+        <v>2049</v>
+      </c>
+      <c r="F46">
+        <v>2073</v>
+      </c>
+      <c r="H46" t="s">
+        <v>83</v>
+      </c>
+      <c r="I46" t="s">
+        <v>15</v>
+      </c>
+      <c r="J46" t="s">
+        <v>139</v>
+      </c>
+      <c r="K46" t="s">
+        <v>131</v>
+      </c>
+      <c r="M46" s="1">
+        <v>0.59121020639788602</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1.5286746319390201</v>
+      </c>
+      <c r="O46" s="1">
+        <v>2.1378345064426099</v>
+      </c>
+      <c r="P46" s="1">
+        <v>3.2936403959543301</v>
+      </c>
+      <c r="Q46" s="1"/>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
         <v>104</v>
       </c>
-      <c r="B38">
+      <c r="B47" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47">
+        <v>2003</v>
+      </c>
+      <c r="D47">
         <v>2018</v>
       </c>
-      <c r="C38">
+      <c r="E47">
         <v>2038</v>
       </c>
-      <c r="D38">
+      <c r="F47">
         <v>2062</v>
       </c>
-      <c r="E38">
+      <c r="G47">
         <v>2082</v>
       </c>
-      <c r="F38" t="s">
+      <c r="H47" t="s">
+        <v>115</v>
+      </c>
+      <c r="I47" t="s">
         <v>36</v>
       </c>
-      <c r="G38" t="s">
+      <c r="J47" t="s">
         <v>33</v>
       </c>
-      <c r="H38" t="s">
+      <c r="K47" t="s">
         <v>97</v>
       </c>
-      <c r="I38" t="s">
+      <c r="L47" t="s">
         <v>105</v>
       </c>
-      <c r="J38" s="2">
-        <v>0.28053309122718101</v>
-      </c>
-      <c r="K38" s="2">
-        <v>0.89448763529455499</v>
-      </c>
-      <c r="L38" s="2">
-        <v>2.13368631998694</v>
-      </c>
-      <c r="M38" s="2">
-        <v>3.25464655558264</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="M47" s="1">
+        <v>-0.119609705607072</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0.28053309122723802</v>
+      </c>
+      <c r="O47" s="1">
+        <v>0.89448763529461195</v>
+      </c>
+      <c r="P47" s="1">
+        <v>2.133686319987</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>3.2546465555826898</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>141</v>
+      </c>
+      <c r="B48" t="s">
+        <v>121</v>
+      </c>
+      <c r="C48">
+        <v>1999</v>
+      </c>
+      <c r="D48">
+        <v>2017</v>
+      </c>
+      <c r="E48">
+        <v>2033</v>
+      </c>
+      <c r="F48">
+        <v>2060</v>
+      </c>
+      <c r="G48">
+        <v>2081</v>
+      </c>
+      <c r="H48" t="s">
+        <v>112</v>
+      </c>
+      <c r="I48" t="s">
+        <v>83</v>
+      </c>
+      <c r="J48" t="s">
+        <v>66</v>
+      </c>
+      <c r="K48" t="s">
+        <v>69</v>
+      </c>
+      <c r="L48" t="s">
+        <v>142</v>
+      </c>
+      <c r="M48" s="1">
+        <v>1.5714009602893899E-2</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0.20737419128420501</v>
+      </c>
+      <c r="O48" s="1">
+        <v>0.76799011230471304</v>
+      </c>
+      <c r="P48" s="1">
+        <v>2.4009904225667502</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>3.1499673207601102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
         <v>64</v>
       </c>
-      <c r="B39">
+      <c r="B49" t="s">
+        <v>121</v>
+      </c>
+      <c r="C49">
+        <v>2013</v>
+      </c>
+      <c r="D49">
         <v>2034</v>
       </c>
-      <c r="C39">
+      <c r="E49">
         <v>2048</v>
       </c>
-      <c r="D39">
+      <c r="F49">
         <v>2070</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H49" t="s">
+        <v>108</v>
+      </c>
+      <c r="I49" t="s">
         <v>15</v>
       </c>
-      <c r="G39" t="s">
+      <c r="J49" t="s">
         <v>62</v>
       </c>
-      <c r="H39" t="s">
+      <c r="K49" t="s">
         <v>40</v>
       </c>
-      <c r="J39" s="2">
-        <v>0.69072337680391005</v>
-      </c>
-      <c r="K39" s="2">
+      <c r="M49" s="1">
+        <v>0.27711168924966201</v>
+      </c>
+      <c r="N49" s="1">
+        <v>0.69072337680392204</v>
+      </c>
+      <c r="O49" s="1">
         <v>1.39141197204587</v>
       </c>
-      <c r="L39" s="2">
-        <v>2.5225286695692</v>
-      </c>
-      <c r="M39" s="2"/>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="P49" s="1">
+        <v>2.5225286695691902</v>
+      </c>
+      <c r="Q49" s="1"/>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
         <v>65</v>
       </c>
-      <c r="B40">
+      <c r="B50" t="s">
+        <v>121</v>
+      </c>
+      <c r="C50">
+        <v>2017</v>
+      </c>
+      <c r="D50">
         <v>2033</v>
       </c>
-      <c r="C40">
+      <c r="E50">
         <v>2050</v>
       </c>
-      <c r="D40">
+      <c r="F50">
         <v>2074</v>
       </c>
-      <c r="F40" t="s">
+      <c r="H50" t="s">
+        <v>83</v>
+      </c>
+      <c r="I50" t="s">
         <v>66</v>
       </c>
-      <c r="G40" t="s">
+      <c r="J50" t="s">
         <v>59</v>
       </c>
-      <c r="H40" t="s">
+      <c r="K50" t="s">
         <v>46</v>
       </c>
-      <c r="J40" s="2">
+      <c r="M50" s="1">
+        <v>0.11168782269515901</v>
+      </c>
+      <c r="N50" s="1">
         <v>0.78084819934989003</v>
       </c>
-      <c r="K40" s="2">
+      <c r="O50" s="1">
         <v>1.1650189858895901</v>
       </c>
-      <c r="L40" s="2">
+      <c r="P50" s="1">
         <v>2.51032525521738</v>
       </c>
-      <c r="M40" s="2"/>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="Q50" s="1"/>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>67</v>
       </c>
-      <c r="B41">
+      <c r="B51" t="s">
+        <v>121</v>
+      </c>
+      <c r="C51">
+        <v>1996</v>
+      </c>
+      <c r="D51">
         <v>2011</v>
       </c>
-      <c r="C41">
+      <c r="E51">
         <v>2029</v>
       </c>
-      <c r="D41">
+      <c r="F51">
         <v>2060</v>
       </c>
-      <c r="E41">
+      <c r="G51">
         <v>2086</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H51" t="s">
+        <v>113</v>
+      </c>
+      <c r="I51" t="s">
         <v>17</v>
       </c>
-      <c r="G41" t="s">
+      <c r="J51" t="s">
         <v>68</v>
       </c>
-      <c r="H41" t="s">
+      <c r="K51" t="s">
         <v>69</v>
       </c>
-      <c r="I41" t="s">
+      <c r="L51" t="s">
         <v>70</v>
       </c>
-      <c r="J41" s="2">
-        <v>0.19708605850399499</v>
-      </c>
-      <c r="K41" s="2">
-        <v>0.85248630903591305</v>
-      </c>
-      <c r="L41" s="2">
-        <v>2.72245074781776</v>
-      </c>
-      <c r="M41" s="2">
-        <v>3.5750805834353399</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="M51" s="1">
+        <v>-0.15833783323060099</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.19708605850403499</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.85248630903595002</v>
+      </c>
+      <c r="P51" s="1">
+        <v>2.7224507478178199</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>3.5750805834353798</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
         <v>71</v>
       </c>
-      <c r="B42">
+      <c r="B52" t="s">
+        <v>121</v>
+      </c>
+      <c r="C52">
+        <v>1998</v>
+      </c>
+      <c r="D52">
         <v>2020</v>
       </c>
-      <c r="C42">
+      <c r="E52">
         <v>2037</v>
       </c>
-      <c r="D42">
+      <c r="F52">
         <v>2060</v>
       </c>
-      <c r="E42">
+      <c r="G52">
         <v>2084</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H52" t="s">
+        <v>114</v>
+      </c>
+      <c r="I52" t="s">
         <v>72</v>
       </c>
-      <c r="G42" t="s">
+      <c r="J52" t="s">
         <v>73</v>
       </c>
-      <c r="H42" t="s">
+      <c r="K52" t="s">
         <v>69</v>
       </c>
-      <c r="I42" t="s">
+      <c r="L52" t="s">
         <v>74</v>
       </c>
-      <c r="J42" s="2">
+      <c r="M52" s="1">
+        <v>-0.18818129080321999</v>
+      </c>
+      <c r="N52" s="1">
         <v>0.25636699817790398</v>
       </c>
-      <c r="K42" s="2">
-        <v>1.4150692127368201</v>
-      </c>
-      <c r="L42" s="2">
+      <c r="O52" s="1">
+        <v>1.4150692127368101</v>
+      </c>
+      <c r="P52" s="1">
         <v>2.2598840219002199</v>
       </c>
-      <c r="M42" s="2">
-        <v>3.8378899609600099</v>
-      </c>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.2">
-      <c r="J49" s="3"/>
+      <c r="Q52" s="1">
+        <v>3.8378899609600201</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M57" s="1"/>
+      <c r="N57" s="1"/>
+      <c r="O57" s="1"/>
+      <c r="P57" s="1"/>
+      <c r="Q57" s="1"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M58" s="1"/>
+      <c r="N58" s="1"/>
+      <c r="O58" s="1"/>
+      <c r="P58" s="1"/>
+      <c r="Q58" s="1"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M59" s="1"/>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
+      <c r="Q59" s="1"/>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M60" s="1"/>
+      <c r="N60" s="1"/>
+      <c r="O60" s="1"/>
+      <c r="P60" s="1"/>
+      <c r="Q60" s="1"/>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M61" s="1"/>
+      <c r="N61" s="1"/>
+      <c r="O61" s="1"/>
+      <c r="P61" s="1"/>
+      <c r="Q61" s="1"/>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+    </row>
+    <row r="65" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+    </row>
+    <row r="66" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+    </row>
+    <row r="67" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
+    </row>
+    <row r="68" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M68" s="1"/>
+      <c r="N68" s="1"/>
+      <c r="O68" s="1"/>
+      <c r="P68" s="1"/>
+      <c r="Q68" s="1"/>
+    </row>
+    <row r="69" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M69" s="1"/>
+      <c r="N69" s="1"/>
+      <c r="O69" s="1"/>
+      <c r="P69" s="1"/>
+      <c r="Q69" s="1"/>
+    </row>
+    <row r="70" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+      <c r="O70" s="1"/>
+      <c r="P70" s="1"/>
+      <c r="Q70" s="1"/>
+    </row>
+    <row r="71" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+      <c r="O71" s="1"/>
+      <c r="P71" s="1"/>
+      <c r="Q71" s="1"/>
+    </row>
+    <row r="72" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+      <c r="O72" s="1"/>
+      <c r="P72" s="1"/>
+      <c r="Q72" s="1"/>
+    </row>
+    <row r="73" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M73" s="1"/>
+      <c r="N73" s="1"/>
+      <c r="O73" s="1"/>
+      <c r="P73" s="1"/>
+      <c r="Q73" s="1"/>
+    </row>
+    <row r="74" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+      <c r="O74" s="1"/>
+      <c r="P74" s="1"/>
+      <c r="Q74" s="1"/>
+    </row>
+    <row r="75" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M75" s="1"/>
+      <c r="N75" s="1"/>
+      <c r="O75" s="1"/>
+      <c r="P75" s="1"/>
+      <c r="Q75" s="1"/>
+    </row>
+    <row r="76" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M76" s="1"/>
+      <c r="N76" s="1"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="1"/>
+      <c r="Q76" s="1"/>
+    </row>
+    <row r="77" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M77" s="1"/>
+      <c r="N77" s="1"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="1"/>
+      <c r="Q77" s="1"/>
+    </row>
+    <row r="78" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M78" s="1"/>
+      <c r="N78" s="1"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="1"/>
+      <c r="Q78" s="1"/>
+    </row>
+    <row r="79" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M79" s="1"/>
+      <c r="N79" s="1"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="1"/>
+      <c r="Q79" s="1"/>
+    </row>
+    <row r="80" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="1"/>
+      <c r="Q80" s="1"/>
+    </row>
+    <row r="81" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+    </row>
+    <row r="82" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+    </row>
+    <row r="83" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="1"/>
+      <c r="Q83" s="1"/>
+    </row>
+    <row r="84" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+    </row>
+    <row r="85" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M85" s="1"/>
+      <c r="N85" s="1"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="1"/>
+      <c r="Q85" s="1"/>
+    </row>
+    <row r="86" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="1"/>
+      <c r="Q86" s="1"/>
+    </row>
+    <row r="87" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M87" s="1"/>
+      <c r="N87" s="1"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="1"/>
+      <c r="Q87" s="1"/>
+    </row>
+    <row r="88" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M88" s="1"/>
+      <c r="N88" s="1"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="1"/>
+      <c r="Q88" s="1"/>
+    </row>
+    <row r="89" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M89" s="1"/>
+      <c r="N89" s="1"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="1"/>
+      <c r="Q89" s="1"/>
+    </row>
+    <row r="90" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M90" s="1"/>
+      <c r="N90" s="1"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="1"/>
+      <c r="Q90" s="1"/>
+    </row>
+    <row r="91" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M91" s="1"/>
+      <c r="N91" s="1"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="1"/>
+      <c r="Q91" s="1"/>
+    </row>
+    <row r="92" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M92" s="1"/>
+      <c r="N92" s="1"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="1"/>
+      <c r="Q92" s="1"/>
+    </row>
+    <row r="93" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M93" s="1"/>
+      <c r="N93" s="1"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="1"/>
+      <c r="Q93" s="1"/>
+    </row>
+    <row r="94" spans="13:17" x14ac:dyDescent="0.2">
+      <c r="M94" s="1"/>
+      <c r="N94" s="1"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="1"/>
+      <c r="Q94" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="J1:M1"/>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
